--- a/config_debug/act_025_jrth_config.xlsx
+++ b/config_debug/act_025_jrth_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26415" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="permisson_level1" sheetId="1" r:id="rId1"/>
@@ -76,6 +76,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,6 +87,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,6 +98,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -106,6 +109,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,6 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,6 +131,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,6 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -146,6 +153,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,6 +164,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,6 +197,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,6 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,6 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,6 +257,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,6 +268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -261,6 +279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,6 +290,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +301,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -291,6 +312,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -301,6 +323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,6 +334,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,6 +345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,6 +358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,6 +369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -355,6 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,6 +393,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -375,6 +404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,6 +415,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,6 +426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,6 +437,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,6 +448,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -425,6 +459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -435,6 +470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,6 +481,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,6 +492,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -465,6 +503,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,6 +514,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -487,6 +527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,6 +538,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -509,6 +551,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -519,6 +562,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -529,6 +573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,6 +595,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -559,6 +606,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -569,6 +617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -579,6 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +639,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,6 +650,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,6 +661,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,6 +672,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -631,6 +685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -641,132 +696,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>98元</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"5080</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5250</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5280</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5380</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1亿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
     </r>
   </si>
   <si>
@@ -806,6 +740,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,6 +765,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,6 +790,10 @@
   </si>
   <si>
     <t>"ty_icon_jb_50y","ty_icon_jb_98y","ty_icon_jb_198y","ty_icon_jb_498y","ty_icon_jb_998y","ty_icon_jb_2498y"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","5250万","5280万","5380万","6000万","1亿"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -873,18 +813,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1274,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1344,13 +1287,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -1374,19 +1317,19 @@
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -1406,16 +1349,16 @@
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -1519,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,13 +1531,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
@@ -1618,16 +1561,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>23</v>
@@ -1650,19 +1593,19 @@
         <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="1">
         <v>3</v>
@@ -1794,19 +1737,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1814,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>1609200000</v>
@@ -1823,7 +1766,7 @@
         <v>1609775999</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1835,20 +1778,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,17 +1798,20 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,7 +1824,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1890,7 +1833,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1908,7 +1851,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1917,7 +1860,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
